--- a/20 開発資料/02.画面設計/画面遷移図.xlsx
+++ b/20 開発資料/02.画面設計/画面遷移図.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -97,9 +97,6 @@
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>バイエル薬品
@@ -352,6 +349,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -378,9 +427,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,55 +464,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -487,14 +484,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>199895</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -506,9 +503,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5800595" y="1657350"/>
-          <a:ext cx="14417" cy="2133600"/>
+        <a:xfrm flipH="1">
+          <a:off x="6557962" y="2628900"/>
+          <a:ext cx="4763" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -538,28 +535,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="直線コネクタ 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="1666875"/>
-          <a:ext cx="14287" cy="2114550"/>
+        <a:xfrm flipH="1">
+          <a:off x="3948112" y="2638425"/>
+          <a:ext cx="4763" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -589,14 +584,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -607,7 +602,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="685800"/>
+          <a:off x="5000625" y="685800"/>
           <a:ext cx="1238250" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -658,14 +653,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -676,7 +671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3409949" y="1885950"/>
+          <a:off x="2705099" y="1885950"/>
           <a:ext cx="1209676" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -744,13 +739,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -761,7 +756,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5219699" y="1885950"/>
+          <a:off x="5305424" y="1885950"/>
           <a:ext cx="1209676" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -812,16 +807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -830,7 +825,114 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010399" y="1895475"/>
+          <a:off x="6591299" y="1885950"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・宿泊交通タクチケ手配依頼一覧</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419474" y="2914650"/>
           <a:ext cx="1209676" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -872,7 +974,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>講演会情報一覧</a:t>
+            <a:t>会場手配・見積依頼</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -881,99 +983,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3409949" y="2914650"/>
-          <a:ext cx="1209676" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>講演会場</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>手配・見積依頼</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -984,7 +1001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5229224" y="2914650"/>
+          <a:off x="5972174" y="2914650"/>
           <a:ext cx="1209676" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1051,16 +1068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1069,7 +1086,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219199" y="2924175"/>
+          <a:off x="742949" y="2914650"/>
           <a:ext cx="1209676" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1082,7 +1099,7 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:prstDash val="sysDash"/>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1112,33 +1129,14 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>講演会</a:t>
+            <a:t>講演会基本情報</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>基本情報</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（？）</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1146,13 +1144,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1163,7 +1161,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3409949" y="4800600"/>
+          <a:off x="3419474" y="4800600"/>
           <a:ext cx="1209676" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1215,13 +1213,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1232,7 +1230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3409949" y="3781425"/>
+          <a:off x="3419474" y="3781425"/>
           <a:ext cx="1209676" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1274,23 +1272,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>講演会場</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>手配・履歴一覧</a:t>
+            <a:t>会場手配・履歴一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1299,14 +1281,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1317,7 +1299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5210174" y="3790950"/>
+          <a:off x="5953124" y="3790950"/>
           <a:ext cx="1209676" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1384,16 +1366,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1402,7 +1384,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="4638675"/>
+          <a:off x="6010275" y="5657850"/>
           <a:ext cx="1181100" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -1453,33 +1435,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="カギ線コネクタ 18"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="0"/>
-          <a:endCxn id="8" idx="0"/>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="83" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4205287" y="-485775"/>
-          <a:ext cx="1028700" cy="5791200"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5248274" y="-2671763"/>
+          <a:ext cx="9525" cy="9124950"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 122222"/>
+            <a:gd name="adj1" fmla="val -2400000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -1507,14 +1489,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -1527,7 +1509,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4800600" y="1028700"/>
+          <a:off x="5610225" y="1028700"/>
           <a:ext cx="9525" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1558,14 +1540,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1576,7 +1558,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4171950" y="1200150"/>
+          <a:off x="4981575" y="1200150"/>
           <a:ext cx="1238250" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1625,274 +1607,16 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="877163" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143250" y="2381250"/>
-          <a:ext cx="877163" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>新規手配依頼</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="704039" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6886575" y="2419350"/>
-          <a:ext cx="704039" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>変更・取消</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7615237" y="2409825"/>
-          <a:ext cx="4763" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4229101" y="2695575"/>
-          <a:ext cx="3400424" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4219575" y="2686050"/>
-          <a:ext cx="0" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1903,8 +1627,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6019800" y="2686050"/>
-          <a:ext cx="0" cy="228600"/>
+          <a:off x="1343025" y="2638425"/>
+          <a:ext cx="4762" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1913,7 +1637,8 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1935,116 +1660,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>19084</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>27845</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線コネクタ 38"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6419884" y="2143125"/>
-          <a:ext cx="208786" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線コネクタ 40"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6619875" y="2143125"/>
-          <a:ext cx="9525" cy="1019175"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2055,12 +1680,15 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6438900" y="3171825"/>
-          <a:ext cx="1171575" cy="1466850"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm flipH="1">
+          <a:off x="6600825" y="3171825"/>
+          <a:ext cx="581025" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39344"/>
+            <a:gd name="adj2" fmla="val 55172"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -2088,16 +1716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2106,7 +1734,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7029449" y="3790950"/>
+          <a:off x="6019799" y="4810125"/>
           <a:ext cx="1209676" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2173,14 +1801,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2191,7 +1819,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1209674" y="1885950"/>
+          <a:off x="85724" y="1885950"/>
           <a:ext cx="1209676" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2259,13 +1887,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>22224</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -2279,7 +1907,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3409949" y="3171825"/>
+          <a:off x="3419474" y="3171825"/>
           <a:ext cx="12700" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2314,13 +1942,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -2334,8 +1962,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4619626" y="3171825"/>
-          <a:ext cx="609599" cy="1885950"/>
+          <a:off x="4629150" y="3171825"/>
+          <a:ext cx="1343024" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2345,6 +1973,1534 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
           <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010024" y="1895475"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>検索・会場手配</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>依頼一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3305175" y="1666875"/>
+          <a:ext cx="4762" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4600575" y="1666875"/>
+          <a:ext cx="4762" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="カギ線コネクタ 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="31" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3957637" y="1752599"/>
+          <a:ext cx="9525" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2500000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="カギ線コネクタ 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="47" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1333500" y="1757362"/>
+          <a:ext cx="9525" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2500000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="1647825"/>
+          <a:ext cx="4762" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381124" y="1895475"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>検索・講演会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>基本情報一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>115886</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1586</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6553199" y="1757362"/>
+          <a:ext cx="12700" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線コネクタ 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="2400300"/>
+          <a:ext cx="9525" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="5067300"/>
+          <a:ext cx="419099" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886699" y="1885950"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>施設マスタメンテ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886699" y="2524125"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ユーザマスタメンテ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886699" y="3152775"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>取込ログ参照</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877174" y="3762375"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>操作ログ参照</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線コネクタ 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5895975" y="1657350"/>
+          <a:ext cx="4762" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線コネクタ 80"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7191375" y="1666875"/>
+          <a:ext cx="4762" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210674" y="1895475"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>精算金額入力</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210674" y="2524125"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>SAP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>データ作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9201149" y="3162300"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>講演会・ｺｽﾄｾﾝﾀｰ別</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>集計</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210674" y="3771900"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>参加者一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線コネクタ 87"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8458200" y="1657350"/>
+          <a:ext cx="4762" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2657,221 +3813,211 @@
   <dimension ref="A1:AZ3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+      <selection activeCell="AU3" sqref="AU3:AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="10" t="s">
-        <v>0</v>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27" t="s">
+        <v>1</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14" t="s">
-        <v>1</v>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="6"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="31" t="s">
+        <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="28" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="12">
+        <v>41535</v>
+      </c>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="33"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="24">
-        <v>41535</v>
-      </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="10" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="10" t="s">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="10" t="s">
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="12">
+        <v>41536</v>
+      </c>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="27" t="s">
-        <v>10</v>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -2882,6 +4028,18 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/02.画面設計/画面遷移図.xlsx
+++ b/20 開発資料/02.画面設計/画面遷移図.xlsx
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -349,58 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -427,6 +375,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,6 +414,55 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1491,25 +1491,23 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="21" name="直線コネクタ 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5610225" y="1028700"/>
+          <a:off x="5610225" y="1000125"/>
           <a:ext cx="9525" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1914,59 +1912,6 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 1800000"/>
           </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="カギ線コネクタ 64"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="1"/>
-          <a:endCxn id="12" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4629150" y="3171825"/>
-          <a:ext cx="1343024" cy="1885950"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -3501,6 +3446,128 @@
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="5657850"/>
+          <a:ext cx="1209676" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>宿泊ホテル検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5205414" y="3171824"/>
+          <a:ext cx="766761" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3813,211 +3880,223 @@
   <dimension ref="A1:AZ3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3:AZ3"/>
+      <selection activeCell="AR35" sqref="AR35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="7" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="6"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="33"/>
     </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="31" t="s">
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="7" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="12">
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="25">
         <v>41535</v>
       </c>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="7" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="8" t="s">
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="7" t="s">
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="7" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="7" t="s">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="12">
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="25">
         <v>41536</v>
       </c>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="7" t="s">
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="8" t="s">
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -4028,18 +4107,6 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
